--- a/NPDESI ABBEnEn.xlsx
+++ b/NPDESI ABBEnEn.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonier\Desktop\Other\Study\R&amp;S+Security+SDN\NPDESI\Vocabulary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CDDAE0CE-C9FB-4D75-9AFC-FB390A1B2350}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18045" windowHeight="6585"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -315,7 +316,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -710,22 +711,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="59.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.1328125" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
         <v>96</v>
       </c>
@@ -735,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -749,7 +750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -763,7 +764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -777,7 +778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -791,7 +792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -802,7 +803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -813,7 +814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -821,7 +822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -829,7 +830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -837,7 +838,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -845,7 +846,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -853,7 +854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -861,7 +862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -869,7 +870,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -877,7 +878,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -885,7 +886,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -893,7 +894,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -901,7 +902,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -909,7 +910,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -917,7 +918,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -925,7 +926,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -933,7 +934,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -941,7 +942,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -949,7 +950,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -957,7 +958,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -965,7 +966,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -973,7 +974,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -981,7 +982,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -989,7 +990,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -997,7 +998,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -1005,7 +1006,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -1013,7 +1014,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -1021,7 +1022,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -1029,7 +1030,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -1037,7 +1038,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -1053,7 +1054,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -1061,7 +1062,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -1069,7 +1070,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -1077,7 +1078,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -1085,7 +1086,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -1093,7 +1094,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -1101,7 +1102,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -1109,7 +1110,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -1117,7 +1118,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -1125,7 +1126,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>94</v>
       </c>

--- a/NPDESI ABBEnEn.xlsx
+++ b/NPDESI ABBEnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CDDAE0CE-C9FB-4D75-9AFC-FB390A1B2350}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1E547883-E64A-4051-8002-FC3A2CF009B9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="101">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -311,6 +311,18 @@
   </si>
   <si>
     <t>NPDESI ABBEnEn</t>
+  </si>
+  <si>
+    <t>HAL</t>
+  </si>
+  <si>
+    <t>hardware abstraction layer</t>
+  </si>
+  <si>
+    <t>BSP</t>
+  </si>
+  <si>
+    <t>board support package</t>
   </si>
 </sst>
 </file>
@@ -712,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>
@@ -1134,6 +1146,22 @@
         <v>95</v>
       </c>
     </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/NPDESI ABBEnEn.xlsx
+++ b/NPDESI ABBEnEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asokyrch\Documents\GitHub\kb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1E547883-E64A-4051-8002-FC3A2CF009B9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{ED9D7E8B-2CDA-4C09-AA8C-D252DFFADE1A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="18045" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="105">
   <si>
     <t>EnglishUnitedStates-EnglishUnitedStates</t>
   </si>
@@ -323,6 +323,18 @@
   </si>
   <si>
     <t>board support package</t>
+  </si>
+  <si>
+    <t>BRE</t>
+  </si>
+  <si>
+    <t>basic regular expression</t>
+  </si>
+  <si>
+    <t>ERE</t>
+  </si>
+  <si>
+    <t>extended regular expression</t>
   </si>
 </sst>
 </file>
@@ -724,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.75"/>
@@ -1162,6 +1174,22 @@
         <v>100</v>
       </c>
     </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
